--- a/Input Documents/CR/Review/PO_SB_CR_ES_Review.xlsx
+++ b/Input Documents/CR/Review/PO_SB_CR_ES_Review.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentorship\SAG\WEB_SWProcess_Documents\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git Ex\ES_SWProcess_Documents\Input Documents\CR\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Entry Date</t>
   </si>
@@ -42,20 +42,62 @@
     <t>Open</t>
   </si>
   <si>
-    <t>DocType_REV_ID</t>
-  </si>
-  <si>
     <t>Proposed Solution</t>
+  </si>
+  <si>
+    <t>CR_REV_ID</t>
+  </si>
+  <si>
+    <t>CR_REV_0001</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>1//Table of content/</t>
+  </si>
+  <si>
+    <t>Reference Documentation: ……………………………………………1</t>
+  </si>
+  <si>
+    <t>This element should be from table of content</t>
+  </si>
+  <si>
+    <t>CR_REV_0002</t>
+  </si>
+  <si>
+    <t>Mapping Customer’s ID: …..………………………………………….3</t>
+  </si>
+  <si>
+    <t>it should be " Mapping Customer Requirements"</t>
+  </si>
+  <si>
+    <t>Abdallh Mohamed</t>
+  </si>
+  <si>
+    <t>CR_REV_0003</t>
+  </si>
+  <si>
+    <t>V1.1</t>
+  </si>
+  <si>
+    <t>1//Document Status/</t>
+  </si>
+  <si>
+    <t>it should be " FirstName LastName"</t>
+  </si>
+  <si>
+    <t>Author : FirstName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -65,12 +107,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -135,51 +171,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -419,23 +438,23 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
-    <col min="6" max="7" width="44.5546875" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="7" width="44.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -453,49 +472,91 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44860</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6">
+        <v>44860</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44860</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
@@ -507,7 +568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
@@ -519,7 +580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
@@ -531,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -543,7 +604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -555,15 +616,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H9">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Input Documents/CR/Review/PO_SB_CR_ES_Review.xlsx
+++ b/Input Documents/CR/Review/PO_SB_CR_ES_Review.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Entry Date</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Author : FirstName</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
@@ -438,8 +441,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -501,7 +504,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -527,7 +530,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -553,7 +556,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
